--- a/Data/complete_data_fits.xlsx
+++ b/Data/complete_data_fits.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidjcox/Dropbox (Personal)/Projects/CurrentProjectManuscripts/Empirical/PersonalFun/Demand for Certification/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidjcox/Dropbox (Personal)/Projects/CurrentProjectManuscripts/Empirical/PersonalFun/Demand for Certification/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB46A0C6-C07F-2B40-B7D3-5D1BB8978BEA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9630BB4-FB4E-D041-8937-173E62450323}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="63980" windowHeight="34560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="64000" windowHeight="16020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="fit_complete_data" sheetId="1" r:id="rId1"/>
@@ -3654,12 +3654,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CM63"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="6" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="6" ySplit="1" topLeftCell="G16" activePane="bottomRight" state="frozen"/>
       <selection activeCell="F1" sqref="F1"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
-      <selection pane="bottomRight" activeCell="E60" sqref="E60"/>
+      <selection pane="bottomRight" activeCell="R63" sqref="R63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13947,7 +13947,7 @@
         <v>74.42631836235698</v>
       </c>
       <c r="W60" s="8">
-        <f t="shared" si="7"/>
+        <f>$AY$56 * (10^(($AZ$56*(EXP(-$BA$56*$AY$56*W1)-1))))</f>
         <v>64.670875868764625</v>
       </c>
       <c r="X60" s="8">
